--- a/myapp/files/test/zwischsave.xlsx
+++ b/myapp/files/test/zwischsave.xlsx
@@ -422,13 +422,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -436,22 +436,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1023</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
-        <v>584</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
+        <v>74</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
         <v>364</v>
       </c>
-      <c r="E3" t="n">
-        <v>411</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1685</v>
-      </c>
       <c r="G3" t="n">
-        <v>4067</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4">
@@ -459,22 +459,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>758</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
-        <v>457</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>339</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>1438</v>
+        <v>328</v>
       </c>
       <c r="G4" t="n">
-        <v>3290</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
@@ -482,22 +482,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>68.84</v>
+        <v>69.93</v>
       </c>
       <c r="C5" t="n">
-        <v>64.32</v>
+        <v>62.43</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>70.48</v>
       </c>
       <c r="E5" t="n">
-        <v>74.32</v>
+        <v>76.92</v>
       </c>
       <c r="F5" t="n">
-        <v>70.24</v>
+        <v>73.54</v>
       </c>
       <c r="G5" t="n">
-        <v>69.33</v>
+        <v>70.89</v>
       </c>
     </row>
     <row r="6">
@@ -505,22 +505,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>51.01</v>
+        <v>51.63</v>
       </c>
       <c r="C6" t="n">
-        <v>50.33</v>
+        <v>49.21</v>
       </c>
       <c r="D6" t="n">
-        <v>57.31</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>61.3</v>
+        <v>46.15</v>
       </c>
       <c r="F6" t="n">
-        <v>59.94</v>
+        <v>66.26</v>
       </c>
       <c r="G6" t="n">
-        <v>56.09</v>
+        <v>57.55</v>
       </c>
     </row>
     <row r="7">
@@ -531,19 +531,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="D7" t="n">
         <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17.75</v>
       </c>
       <c r="E7" t="n">
         <v>26.75</v>
       </c>
       <c r="F7" t="n">
-        <v>21.5</v>
+        <v>20.75</v>
       </c>
       <c r="G7" t="n">
-        <v>20.5</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="8">
@@ -551,22 +551,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>11.5</v>
+        <v>13.25</v>
       </c>
       <c r="C8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D8" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
-        <v>10.75</v>
-      </c>
       <c r="E8" t="n">
-        <v>20.75</v>
+        <v>21.75</v>
       </c>
       <c r="F8" t="n">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="G8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/test/zwischsave.xlsx
+++ b/myapp/files/test/zwischsave.xlsx
@@ -422,13 +422,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -436,22 +436,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>214</v>
+        <v>809</v>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>466</v>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="F3" t="n">
-        <v>364</v>
+        <v>1321</v>
       </c>
       <c r="G3" t="n">
-        <v>850</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="4">
@@ -459,22 +459,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>158</v>
+        <v>600</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="F4" t="n">
-        <v>328</v>
+        <v>1110</v>
       </c>
       <c r="G4" t="n">
-        <v>690</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="5">
@@ -482,22 +482,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>69.93</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>62.43</v>
+        <v>17.25</v>
       </c>
       <c r="D5" t="n">
-        <v>70.48</v>
+        <v>18.25</v>
       </c>
       <c r="E5" t="n">
-        <v>76.92</v>
+        <v>26.75</v>
       </c>
       <c r="F5" t="n">
-        <v>73.54</v>
+        <v>21.75</v>
       </c>
       <c r="G5" t="n">
-        <v>70.89</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="6">
@@ -505,22 +505,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>51.63</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>49.21</v>
+        <v>11.25</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>10.75</v>
       </c>
       <c r="E6" t="n">
-        <v>46.15</v>
+        <v>20.5</v>
       </c>
       <c r="F6" t="n">
-        <v>66.26</v>
+        <v>14.5</v>
       </c>
       <c r="G6" t="n">
-        <v>57.55</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="7">
@@ -528,22 +528,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="C7" t="n">
-        <v>16.25</v>
+        <v>20.75</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>20.75</v>
       </c>
       <c r="E7" t="n">
-        <v>26.75</v>
+        <v>20.75</v>
       </c>
       <c r="F7" t="n">
         <v>20.75</v>
       </c>
       <c r="G7" t="n">
-        <v>19.75</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="8">
@@ -554,19 +554,19 @@
         <v>13.25</v>
       </c>
       <c r="C8" t="n">
-        <v>10.75</v>
+        <v>13.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13.25</v>
       </c>
       <c r="E8" t="n">
-        <v>21.75</v>
+        <v>13.25</v>
       </c>
       <c r="F8" t="n">
-        <v>15.5</v>
+        <v>13.25</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>13.25</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/test/zwischsave.xlsx
+++ b/myapp/files/test/zwischsave.xlsx
@@ -422,13 +422,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -436,22 +436,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>809</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
-        <v>466</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1321</v>
+        <v>364</v>
       </c>
       <c r="G3" t="n">
-        <v>3217</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4">
@@ -459,22 +459,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>600</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
-        <v>364</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>1110</v>
+        <v>328</v>
       </c>
       <c r="G4" t="n">
-        <v>2600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
@@ -485,19 +485,19 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>17.25</v>
+        <v>16.25</v>
       </c>
       <c r="D5" t="n">
-        <v>18.25</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>26.75</v>
       </c>
       <c r="F5" t="n">
-        <v>21.75</v>
+        <v>20.75</v>
       </c>
       <c r="G5" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="6">
@@ -505,22 +505,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.75</v>
-      </c>
       <c r="E6" t="n">
-        <v>20.5</v>
+        <v>21.75</v>
       </c>
       <c r="F6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="G6" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -528,22 +528,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
       <c r="C7" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
       <c r="D7" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
       <c r="E7" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
       <c r="F7" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
       <c r="G7" t="n">
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="8">
@@ -551,22 +551,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>13.25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
